--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Parameters</t>
   </si>
@@ -39,9 +39,6 @@
     <t>NH3-N(mg/L)</t>
   </si>
   <si>
-    <t>Electric onductivity(mS/cm)</t>
-  </si>
-  <si>
     <t>Dissolved Oxygen(mg/L)</t>
   </si>
   <si>
@@ -90,7 +87,43 @@
     <t>Oil &amp; Grease(mg/L)</t>
   </si>
   <si>
-    <t>Presticides(mg/L)</t>
+    <t>NSFWQI</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>BOD</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Nitrates</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>WQI &amp; CWQI</t>
+  </si>
+  <si>
+    <t>Pesticides(mg/L)</t>
+  </si>
+  <si>
+    <t>Electric conductivity(mS/cm)</t>
   </si>
 </sst>
 </file>
@@ -429,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:F30"/>
+  <dimension ref="D7:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,8 +473,14 @@
     <col min="1" max="1" width="17.36328125" customWidth="1"/>
     <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1796875" customWidth="1"/>
+    <col min="8" max="8" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>0</v>
@@ -455,7 +494,7 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -466,7 +505,7 @@
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -477,12 +516,12 @@
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>8.6999999999999994E-3</v>
@@ -493,7 +532,7 @@
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>610</v>
@@ -530,67 +569,143 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
         <v>24</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>5678</v>
       </c>
     </row>
   </sheetData>
